--- a/external/VRCon 2022 Schedule (Internal).xlsx
+++ b/external/VRCon 2022 Schedule (Internal).xlsx
@@ -24,23 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="C15">
-      <text>
-        <t xml:space="preserve">Wating for confirmation-Shadozw</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="380">
   <si>
     <t xml:space="preserve">VRCon 2022 Events Schedule </t>
   </si>
@@ -145,6 +130,9 @@
   </si>
   <si>
     <t>30min Pre Recorded by Media Team</t>
+  </si>
+  <si>
+    <t>Are you ready for VRCon 2022? For 30 minutes prior to the start of VRCon, enjoy the special Pre Show made by our lovely staff of the VRCon Media Team</t>
   </si>
   <si>
     <t>30min</t>
@@ -186,6 +174,9 @@
     <t>VRCon Opening Ceremony</t>
   </si>
   <si>
+    <t>Enjoy our our long tour of VRCon 2022 with the Directors and staff of VRCon</t>
+  </si>
+  <si>
     <t>Opening Ceremony/Tour</t>
   </si>
   <si>
@@ -201,6 +192,12 @@
     <t>Theatre/Live Performance</t>
   </si>
   <si>
+    <t>https://www.twitch.tv/officialartifex</t>
+  </si>
+  <si>
+    <t>1 cam - 4</t>
+  </si>
+  <si>
     <t>VRCon Opening Night Party</t>
   </si>
   <si>
@@ -213,10 +210,10 @@
     <t>Recominded Private VCDN stream do to copyright issues</t>
   </si>
   <si>
+    <t>vrcon bot 3</t>
+  </si>
+  <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Marketing Details</t>
   </si>
   <si>
     <t>Avatar PVP Showcase</t>
@@ -261,6 +258,9 @@
     <t>2 Cam, 1 show</t>
   </si>
   <si>
+    <t>vrcon bot 1</t>
+  </si>
+  <si>
     <t>Nope nothing as off importance at the moment but if you need a chat DM me. I'm in the NZST Timezone so I Picked both Morning and Afternoon</t>
   </si>
   <si>
@@ -351,15 +351,52 @@
     <t>2 - 4 Cam. 1 show</t>
   </si>
   <si>
+    <t>vrcon bot 2</t>
+  </si>
+  <si>
     <t>World is WIP but will get released before the event</t>
   </si>
   <si>
     <t>VRCon Film Festival</t>
   </si>
   <si>
+    <t>VRCon Anual Film Festival Hosted by Metacosm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join us in celebrating thirty VRChat movies, short films, music videos, and cinematic content made by filmmakers from across the world. Hosted by J. Constantine and Elim from Metacosm Studios.
+</t>
+  </si>
+  <si>
+    <t>Michael Zhang</t>
+  </si>
+  <si>
+    <t>Constantine</t>
+  </si>
+  <si>
+    <t>Constantine and Elim</t>
+  </si>
+  <si>
+    <t>Film Festival</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>VRCon 2021 Film Festival</t>
+  </si>
+  <si>
+    <t>VRCon Events World</t>
+  </si>
+  <si>
     <t>1 stagecaster, 1 showrunner, 2 camera, wolveeps</t>
   </si>
   <si>
+    <t>Sign-up</t>
+  </si>
+  <si>
+    <t>Covered by Metacosm</t>
+  </si>
+  <si>
     <t>VRCon After Party</t>
   </si>
   <si>
@@ -480,7 +517,7 @@
     <t>https://discord.gg/wFmr4aVV6Z</t>
   </si>
   <si>
-    <t>VRCon Event World (Maybe)</t>
+    <t>Sentinels of Monstrum Home World</t>
   </si>
   <si>
     <t>Performers/Actors</t>
@@ -534,13 +571,23 @@
     <t>VRCon Event</t>
   </si>
   <si>
+    <t>Come one! Come all! To the Doubles Pool Tournament. Here, you and your partner will be facing against other teams to take home the gold!</t>
+  </si>
+  <si>
     <t>CelestialRose#0020</t>
   </si>
   <si>
     <t>-CelestialRose-</t>
   </si>
   <si>
-    <t>2 Hours</t>
+    <t>Rubystorm</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pool Parlor v3｜8 Ball Pool</t>
   </si>
   <si>
     <t>STEMVR</t>
@@ -608,6 +655,9 @@
     <t>Vrcon Event</t>
   </si>
   <si>
+    <t>Enjoy a fun session of World Hopping with the VRCon Team</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Hours </t>
   </si>
   <si>
@@ -615,6 +665,9 @@
 screening</t>
   </si>
   <si>
+    <t>An official Screaning of the HBO Film, We Met in Virtual Reality, Filmed by Joe Hunting</t>
+  </si>
+  <si>
     <t>Little Poe</t>
   </si>
   <si>
@@ -655,6 +708,9 @@
     <t xml:space="preserve">VRCon Event </t>
   </si>
   <si>
+    <t>Looking to get some energy out? Got a friend that you'd like to box with? Join the VRCon team while we release some energy, boxing with our friends</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rubystorm </t>
   </si>
   <si>
@@ -728,9 +784,45 @@
     <t>Battle Discs Tournament</t>
   </si>
   <si>
+    <t>A VRCon official Event, watch as teams compete for the top in a game of Battle Discs</t>
+  </si>
+  <si>
     <t>Battle Disc world</t>
   </si>
   <si>
+    <t>Ida Dance Cypher</t>
+  </si>
+  <si>
+    <t>JJFX-MULTIMEDIA#6552</t>
+  </si>
+  <si>
+    <t>JJFX-MULTIMEDIA</t>
+  </si>
+  <si>
+    <t>Dance Cypher</t>
+  </si>
+  <si>
+    <t>Ida Wearhouse</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/jjfx_multimedia</t>
+  </si>
+  <si>
+    <t>Raid jjfx</t>
+  </si>
+  <si>
+    <t>Shadozw</t>
+  </si>
+  <si>
+    <t>vrcon 3</t>
+  </si>
+  <si>
+    <t>GGduh, JJFX-MultiMedia,B-Botics,Charma</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uBUvXPXWu7N86lPUD0bA5lZIAn9EgdyR/view?usp=sharing</t>
+  </si>
+  <si>
     <t>LGBTQ+ in VRC</t>
   </si>
   <si>
@@ -803,18 +895,6 @@
     <t xml:space="preserve">If media team would like to be present they can be. </t>
   </si>
   <si>
-    <t>Dance Battle-IDA</t>
-  </si>
-  <si>
-    <t>JJFX-MULTIMEDIA#6552</t>
-  </si>
-  <si>
-    <t>JJFX-MULTIMEDIA</t>
-  </si>
-  <si>
-    <t>Sign ups</t>
-  </si>
-  <si>
     <t>Introducing the Wallig Group Television and Metalworks Factory VRChat Roleplay community</t>
   </si>
   <si>
@@ -896,7 +976,13 @@
     <t>Prior experience performing at the last two VRCons as well as many other music venues within virtual reality.</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>Mini Golf (Putt Putt)</t>
+  </si>
+  <si>
+    <t>Sit back and relax as we play a fun game of Mini Golf</t>
   </si>
   <si>
     <t>Putt Putt Quest</t>
@@ -1052,6 +1138,9 @@
     <t>Into The Metaverse Panel</t>
   </si>
   <si>
+    <t>Meet the cast and learn how we filmed “Into the Metaverse,” a free, 90-minute, anime, action-adventure VRChat movie that’s been two years in the making!  Produced by Metacosm Studios, “Into the Metaverse” tells the story of Rikka and Kakashi’s journey into VRChat. The two embark on a quest through the Metaverse in search of the forgotten Ugandan Knuckles meme.</t>
+  </si>
+  <si>
     <t>Metacosm</t>
   </si>
   <si>
@@ -1070,7 +1159,7 @@
     <t>Muse Live!</t>
   </si>
   <si>
-    <t>A virtual Concert featuring some of VRChats  premeire talent! The event will showcase a variety of music styles and genres from heavy metal to pop to country.</t>
+    <t>A virtual Concert featuring some of VRChats  premiere talent! The event will showcase a variety of music styles and genres from heavy metal to pop to country.</t>
   </si>
   <si>
     <t>MissMuse</t>
@@ -1088,6 +1177,9 @@
     <t>we will need you to place stream camera in designated area for best visuals. As well as any branding you wish to to be present on promotional materials.</t>
   </si>
   <si>
+    <t>vrcon bot 1 and 2</t>
+  </si>
+  <si>
     <t>N/A (if changes VRcon staff will be notified promptly)</t>
   </si>
   <si>
@@ -1097,10 +1189,16 @@
     <t>Talent Show</t>
   </si>
   <si>
+    <t>Sit back and enjoy as VRChat users show their talent and creations!</t>
+  </si>
+  <si>
     <t>Spades</t>
   </si>
   <si>
     <t>Closing Ceremonies</t>
+  </si>
+  <si>
+    <t>VRCon Directors and Staff say their goodbyes after a fun and eventful convention</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1212,7 @@
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;am/pm&quot; &quot;"/>
     <numFmt numFmtId="168" formatCode="h:mm am/pm"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1215,12 +1313,6 @@
       <b/>
       <u/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -1238,12 +1330,6 @@
       <b/>
       <u/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1311,18 +1397,6 @@
       <b/>
       <u/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
@@ -1347,6 +1421,26 @@
       <u/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -1385,6 +1479,12 @@
       <b/>
       <u/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1510,7 +1610,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1632,10 +1732,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1643,7 +1743,7 @@
     <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1652,14 +1752,14 @@
     <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1671,67 +1771,61 @@
     <xf borderId="0" fillId="10" fontId="13" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1743,40 +1837,31 @@
     <xf borderId="0" fillId="14" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="24" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="26" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="23" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1794,13 +1879,19 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1809,7 +1900,7 @@
     <xf borderId="0" fillId="14" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1824,10 +1915,10 @@
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1839,22 +1930,71 @@
     <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="25" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="24" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="24" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="14" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1863,28 +2003,10 @@
     <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="14" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="13" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1893,38 +2015,53 @@
     <xf borderId="0" fillId="7" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="23" numFmtId="167" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="17" fontId="21" numFmtId="167" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2896,32 +3033,34 @@
       <c r="E22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M22" s="33"/>
       <c r="N22" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>32</v>
@@ -2941,21 +3080,23 @@
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="34">
         <v>1.0</v>
       </c>
       <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
       <c r="J23" s="37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
@@ -2963,10 +3104,10 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S23" s="36"/>
       <c r="T23" s="35"/>
@@ -2982,7 +3123,7 @@
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" s="34">
         <v>3.0</v>
@@ -2993,7 +3134,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
       <c r="J24" s="37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
@@ -3001,17 +3142,19 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="35"/>
+      <c r="Q24" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="S24" s="38"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
-      <c r="Y24" s="41"/>
+      <c r="Y24" s="40"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="25">
@@ -3031,35 +3174,39 @@
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D27" s="34">
         <v>3.0</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="36"/>
       <c r="J27" s="34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="41"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="Q27" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="R27" s="34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
+      <c r="V27" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="36"/>
@@ -3281,7 +3428,9 @@
   </cols>
   <sheetData>
     <row r="1" ht="84.0" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3331,7 +3480,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -3397,7 +3546,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3406,16 +3555,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -3433,7 +3582,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -3448,10 +3597,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -3968,12 +4117,12 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -3982,10 +4131,10 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="69"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -3997,12 +4146,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -4011,43 +4160,43 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
       <c r="Y25" s="26"/>
     </row>
     <row r="26">
@@ -4055,28 +4204,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
       <c r="Y26" s="26"/>
     </row>
     <row r="27">
@@ -4084,28 +4233,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
       <c r="Y27" s="26"/>
     </row>
     <row r="28">
@@ -4113,26 +4262,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
       <c r="P28" s="26"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="69"/>
+      <c r="V28" s="67"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
@@ -4142,29 +4291,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -4371,7 +4520,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -4437,7 +4586,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -4446,16 +4595,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -4473,7 +4622,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -4488,10 +4637,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -4782,8 +4931,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -4840,8 +4989,8 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -4869,8 +5018,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -4979,47 +5128,53 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="54">
+      <c r="C22" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="89">
         <v>2.0</v>
       </c>
-      <c r="E22" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="54" t="b">
+      <c r="E22" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="O22" s="91"/>
+      <c r="P22" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
+      <c r="Q22" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
     </row>
     <row r="23">
       <c r="A23" s="29">
@@ -5032,12 +5187,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -5046,43 +5201,43 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
       <c r="Y25" s="46"/>
     </row>
     <row r="26">
@@ -5090,28 +5245,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
       <c r="Y26" s="46"/>
     </row>
     <row r="27">
@@ -5119,28 +5274,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
       <c r="Y27" s="46"/>
     </row>
     <row r="28">
@@ -5148,26 +5303,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="46"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="99"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
@@ -5177,29 +5332,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -5434,7 +5589,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -5502,7 +5657,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -5511,16 +5666,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -5538,7 +5693,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -5553,10 +5708,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -5857,8 +6012,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -5917,8 +6072,8 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -5947,8 +6102,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -6002,51 +6157,53 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="48" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="D20" s="48">
         <v>2.0</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="L20" s="51"/>
       <c r="M20" s="48" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="N20" s="51"/>
       <c r="O20" s="48" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="P20" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="127" t="s">
-        <v>40</v>
+      <c r="Q20" s="135" t="s">
+        <v>41</v>
       </c>
       <c r="R20" s="48"/>
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
       <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
+      <c r="V20" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
@@ -6092,57 +6249,59 @@
       <c r="A23" s="29">
         <v>0.7083333333333334</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="79">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="137">
         <v>2.0</v>
       </c>
-      <c r="E23" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56" t="b">
+      <c r="E23" s="137" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z23" s="128"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z23" s="141"/>
     </row>
     <row r="24">
       <c r="A24" s="29">
@@ -6185,28 +6344,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
       <c r="Y26" s="46"/>
       <c r="Z26" s="46"/>
     </row>
@@ -6215,28 +6374,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
       <c r="Y27" s="46"/>
       <c r="Z27" s="46"/>
     </row>
@@ -6245,26 +6404,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="46"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="99"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
@@ -6275,30 +6434,30 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -6560,7 +6719,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -6626,7 +6785,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -6635,16 +6794,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -6662,7 +6821,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -6677,10 +6836,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -6971,8 +7130,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -7029,8 +7188,8 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -7058,8 +7217,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -7197,12 +7356,12 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
@@ -7211,10 +7370,10 @@
       <c r="N23" s="46"/>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
       <c r="S23" s="46"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="96"/>
       <c r="U23" s="46"/>
       <c r="V23" s="46"/>
       <c r="W23" s="46"/>
@@ -7226,12 +7385,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -7240,50 +7399,50 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="79">
+      <c r="C25" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="112">
         <v>2.0</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="56"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="142"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="91"/>
     </row>
     <row r="26">
       <c r="A26" s="25">
@@ -7296,91 +7455,93 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
       <c r="Y27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="130">
+      <c r="A28" s="144">
         <v>0.9166666666666666</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="121" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="121">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="G28" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="H28" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="I28" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" s="121" t="s">
-        <v>300</v>
-      </c>
-      <c r="O28" s="121" t="s">
-        <v>301</v>
-      </c>
-      <c r="P28" s="116" t="b">
+      <c r="B28" s="144"/>
+      <c r="C28" s="129" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="129">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="129" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="I28" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="M28" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="O28" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="P28" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="131" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y28" s="116" t="s">
-        <v>304</v>
+      <c r="Q28" s="132" t="s">
+        <v>335</v>
+      </c>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="131"/>
+      <c r="X28" s="145" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y28" s="130" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="29">
@@ -7388,29 +7549,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -7644,7 +7805,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -7710,7 +7871,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -7719,16 +7880,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -7746,7 +7907,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -7761,10 +7922,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -8055,8 +8216,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -8113,8 +8274,8 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -8142,8 +8303,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -8222,61 +8383,63 @@
       <c r="A21" s="29">
         <v>0.625</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="54">
+      <c r="B21" s="136"/>
+      <c r="C21" s="138" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="138">
         <v>2.0</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="N21" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="O21" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="P21" s="54" t="b">
+      <c r="E21" s="138" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="H21" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="M21" s="138" t="s">
+        <v>344</v>
+      </c>
+      <c r="N21" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" s="138" t="s">
+        <v>345</v>
+      </c>
+      <c r="P21" s="138" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="54" t="s">
-        <v>314</v>
+      <c r="Q21" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="138" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="22">
@@ -8290,12 +8453,12 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -8304,10 +8467,10 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="69"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -8319,12 +8482,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
@@ -8333,43 +8496,43 @@
       <c r="N24" s="46"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
       <c r="S24" s="46"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="97"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
       <c r="Y25" s="46"/>
     </row>
     <row r="26">
@@ -8377,28 +8540,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
       <c r="Y26" s="46"/>
     </row>
     <row r="27">
@@ -8406,28 +8569,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
       <c r="Y27" s="46"/>
     </row>
     <row r="28">
@@ -8435,26 +8598,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="46"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="99"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
@@ -8464,29 +8627,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -8785,7 +8948,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -8794,16 +8957,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -8821,7 +8984,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -8836,10 +8999,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -9130,8 +9293,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -9217,61 +9380,63 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="B19" s="29"/>
-      <c r="C19" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="116">
+      <c r="C19" s="130" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="130">
         <v>1.0</v>
       </c>
-      <c r="E19" s="132" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="I19" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="J19" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="N19" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="O19" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="P19" s="116" t="b">
+      <c r="E19" s="147" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="130" t="s">
+        <v>351</v>
+      </c>
+      <c r="H19" s="130" t="s">
+        <v>352</v>
+      </c>
+      <c r="I19" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="J19" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="130" t="s">
+        <v>354</v>
+      </c>
+      <c r="M19" s="130" t="s">
+        <v>354</v>
+      </c>
+      <c r="N19" s="130" t="s">
+        <v>355</v>
+      </c>
+      <c r="O19" s="130" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y19" s="117"/>
+      <c r="Q19" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="131"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="131"/>
+      <c r="X19" s="145" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y19" s="131"/>
     </row>
     <row r="20">
       <c r="A20" s="29">
@@ -9307,47 +9472,51 @@
         <v>0.625</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="D21" s="116">
+      <c r="C21" s="130" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="130">
         <v>1.0</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="H21" s="116" t="s">
-        <v>327</v>
-      </c>
-      <c r="I21" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" s="116" t="s">
-        <v>329</v>
-      </c>
-      <c r="K21" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="117"/>
-      <c r="S21" s="116" t="s">
-        <v>330</v>
-      </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" s="130" t="s">
+        <v>360</v>
+      </c>
+      <c r="H21" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="I21" s="130" t="s">
+        <v>362</v>
+      </c>
+      <c r="J21" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="K21" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="131"/>
+      <c r="S21" s="130" t="s">
+        <v>364</v>
+      </c>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
     </row>
     <row r="22">
       <c r="A22" s="29">
@@ -9383,55 +9552,57 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="121" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="121">
+      <c r="C23" s="129" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="129">
         <v>3.0</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="121" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="121" t="s">
-        <v>333</v>
-      </c>
-      <c r="I23" s="116" t="s">
-        <v>334</v>
-      </c>
-      <c r="J23" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="K23" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="123"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="O23" s="121" t="s">
-        <v>337</v>
-      </c>
-      <c r="P23" s="116" t="b">
+      <c r="E23" s="133"/>
+      <c r="F23" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="G23" s="133"/>
+      <c r="H23" s="129" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" s="130" t="s">
+        <v>368</v>
+      </c>
+      <c r="J23" s="129" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="133"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="O23" s="129" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="121" t="s">
-        <v>338</v>
-      </c>
-      <c r="X23" s="122" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y23" s="117"/>
+      <c r="Q23" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="129" t="s">
+        <v>372</v>
+      </c>
+      <c r="W23" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="X23" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y23" s="131"/>
     </row>
     <row r="24">
       <c r="A24" s="29">
@@ -9450,38 +9621,42 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="66">
+      <c r="C26" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="64">
         <v>3.0</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="51"/>
       <c r="J26" s="48" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51"/>
-      <c r="Q26" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="125"/>
+      <c r="Q26" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="77"/>
       <c r="S26" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="T26" s="125"/>
+        <v>377</v>
+      </c>
+      <c r="T26" s="77"/>
       <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
+      <c r="V26" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
@@ -9503,37 +9678,39 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" s="137">
+      <c r="C29" s="126" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="126">
         <v>1.0</v>
       </c>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="138"/>
-      <c r="J29" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="127"/>
+      <c r="J29" s="126" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -9792,7 +9969,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -9871,7 +10048,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>13</v>
@@ -10175,61 +10352,63 @@
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="48">
         <v>1.0</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P15" s="48" t="b">
         <v>1</v>
       </c>
       <c r="Q15" s="49" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
       <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
+      <c r="V15" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="48" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
@@ -10265,63 +10444,65 @@
       <c r="A17" s="53">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="54">
+      <c r="B17" s="54"/>
+      <c r="C17" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="48">
         <v>1.0</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="54" t="s">
-        <v>78</v>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
@@ -10357,63 +10538,65 @@
       <c r="A19" s="29">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="54" t="b">
+      <c r="K19" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="54" t="s">
-        <v>87</v>
+      <c r="Q19" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="48" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -10450,60 +10633,62 @@
         <v>0.625</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="57">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="58" t="b">
+      <c r="P21" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="S21" s="60"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="62" t="s">
-        <v>97</v>
+      <c r="Q21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="58"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
@@ -10517,68 +10702,90 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="64"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="62"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="29">
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="67">
+      <c r="C24" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="65">
         <v>2.0</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66" t="b">
+      <c r="E24" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
+      <c r="Q24" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="25">
@@ -10591,26 +10798,26 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
       <c r="U26" s="26"/>
-      <c r="V26" s="69"/>
+      <c r="V26" s="67"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
@@ -10620,39 +10827,41 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="67">
+      <c r="C27" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="65">
         <v>3.0</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="72"/>
+      <c r="E27" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="70"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="29">
@@ -10951,7 +11160,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -11023,7 +11232,7 @@
       <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -11103,7 +11312,7 @@
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
@@ -11131,7 +11340,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="76"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -11362,8 +11571,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -11443,62 +11652,64 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="58">
+      <c r="C18" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="56">
         <v>3.0</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="58" t="b">
+      <c r="E18" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="Q18" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="R18" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="58" t="s">
-        <v>114</v>
+      <c r="Q18" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19">
@@ -11548,53 +11759,55 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="48" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D22" s="48">
         <v>1.0</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="M22" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22" s="48" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P22" s="48" t="b">
         <v>1</v>
       </c>
       <c r="Q22" s="51"/>
       <c r="R22" s="48" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
+      <c r="V22" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
@@ -11604,12 +11817,12 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -11619,9 +11832,9 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="69"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="69"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -11632,57 +11845,59 @@
       <c r="A24" s="29">
         <v>0.75</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="79">
+      <c r="B24" s="54"/>
+      <c r="C24" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="64">
         <v>0.5</v>
       </c>
-      <c r="E24" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="79" t="s">
+      <c r="E24" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="N24" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" s="54" t="b">
+      <c r="K24" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="81"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="82" t="s">
-        <v>132</v>
+      <c r="Q24" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="77"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="66" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -11715,64 +11930,66 @@
       <c r="Y25" s="47"/>
     </row>
     <row r="26">
-      <c r="A26" s="83">
+      <c r="A26" s="78">
         <v>0.8333333333333334</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="86">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="81">
         <v>1.5</v>
       </c>
-      <c r="E26" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="87"/>
-      <c r="J26" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="N26" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="O26" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="P26" s="89" t="b">
+      <c r="E26" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="82"/>
+      <c r="J26" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="84" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="R26" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85" t="s">
-        <v>83</v>
+      <c r="Q26" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="R26" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -11815,29 +12032,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -12104,7 +12321,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -12176,7 +12393,7 @@
       <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -12237,7 +12454,7 @@
         <v>29</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Y5" s="23" t="s">
         <v>31</v>
@@ -12508,71 +12725,73 @@
       <c r="A15" s="25">
         <v>0.4166666666666667</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="48" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D15" s="48">
         <v>1.0</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="N15" s="48" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P15" s="48" t="b">
         <v>1</v>
       </c>
       <c r="Q15" s="50" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
       <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
+      <c r="V15" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="51"/>
     </row>
     <row r="16">
-      <c r="B16" s="91"/>
+      <c r="B16" s="86"/>
     </row>
     <row r="17">
       <c r="A17" s="29">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -12608,8 +12827,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -12630,7 +12849,7 @@
       <c r="A19" s="29">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B19" s="92"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -12659,44 +12878,54 @@
       <c r="A20" s="29">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="54">
+      <c r="B20" s="88"/>
+      <c r="C20" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="89">
         <v>2.0</v>
       </c>
-      <c r="E20" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="94"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="54"/>
+      <c r="E20" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" s="89"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="89"/>
     </row>
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="29">
@@ -12707,7 +12936,7 @@
       <c r="A22" s="29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -12736,56 +12965,58 @@
       <c r="A23" s="29">
         <v>0.7083333333333334</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="96">
+      <c r="B23" s="54"/>
+      <c r="C23" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="93">
         <v>2.0</v>
       </c>
-      <c r="E23" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" s="54" t="b">
+      <c r="E23" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="51"/>
+      <c r="N23" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="79"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
+      <c r="Q23" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="64"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
     </row>
     <row r="24">
       <c r="A24" s="29">
@@ -12797,29 +13028,29 @@
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
       <c r="Y25" s="26"/>
     </row>
     <row r="26">
@@ -12827,28 +13058,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
       <c r="Y26" s="46"/>
     </row>
     <row r="27">
@@ -12856,28 +13087,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
       <c r="Y27" s="46"/>
     </row>
     <row r="28">
@@ -12885,26 +13116,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="46"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="99"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
@@ -12914,29 +13145,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -13219,7 +13450,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -13255,10 +13486,10 @@
     <row r="4">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="101">
+      <c r="C4" s="98">
         <v>44915.0</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -13291,7 +13522,7 @@
       <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -13566,58 +13797,58 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
     </row>
     <row r="14">
       <c r="A14" s="29">
         <v>0.3333333333333333</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
     </row>
     <row r="15">
       <c r="A15" s="29">
@@ -13653,60 +13884,62 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="104">
+      <c r="C16" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="101">
         <v>1.0</v>
       </c>
-      <c r="E16" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="I16" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="O16" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="P16" s="104" t="b">
+      <c r="E16" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="O16" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="104" t="s">
-        <v>179</v>
+      <c r="Q16" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="101" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17">
@@ -13749,8 +13982,8 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -13859,39 +14092,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="104">
+      <c r="C22" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="101">
         <v>2.0</v>
       </c>
-      <c r="E22" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="104" t="b">
+      <c r="E22" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
     </row>
     <row r="23">
       <c r="A23" s="29">
@@ -13904,12 +14141,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -13918,66 +14155,68 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="104">
+      <c r="C25" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="101">
         <v>2.0</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104" t="b">
+      <c r="E25" s="101"/>
+      <c r="F25" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104">
+      <c r="Q25" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101">
         <v>3.0</v>
       </c>
-      <c r="V25" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
+      <c r="V25" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
     </row>
     <row r="26">
       <c r="A26" s="25">
@@ -13990,61 +14229,61 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="104">
+      <c r="C27" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="101">
         <v>2.0</v>
       </c>
-      <c r="E27" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="L27" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="O27" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="P27" s="104" t="b">
+      <c r="E27" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="P27" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104">
+      <c r="Q27" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101">
         <v>3.0</v>
       </c>
-      <c r="V27" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
+      <c r="V27" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
     </row>
     <row r="28">
       <c r="A28" s="29">
@@ -14057,29 +14296,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -14204,8 +14443,8 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="J27:J28"/>
@@ -14361,7 +14600,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -14427,7 +14666,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -14436,16 +14675,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -14463,7 +14702,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -14478,10 +14717,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -14998,12 +15237,12 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -15012,10 +15251,10 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="69"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -15027,12 +15266,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -15041,43 +15280,43 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
       <c r="Y25" s="26"/>
     </row>
     <row r="26">
@@ -15085,28 +15324,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
       <c r="Y26" s="26"/>
     </row>
     <row r="27">
@@ -15114,28 +15353,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
       <c r="Y27" s="26"/>
     </row>
     <row r="28">
@@ -15143,26 +15382,26 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
       <c r="P28" s="26"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="69"/>
+      <c r="V28" s="67"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
@@ -15172,29 +15411,29 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
     </row>
     <row r="30">
       <c r="A30" s="43"/>
@@ -15402,7 +15641,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -15468,7 +15707,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -15477,16 +15716,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -15504,7 +15743,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -15519,10 +15758,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -15813,8 +16052,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -15865,47 +16104,49 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="110">
+      <c r="C17" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="107">
         <v>2.0</v>
       </c>
-      <c r="E17" s="110" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="110">
+      <c r="E17" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="108"/>
+      <c r="J17" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="107">
         <v>1.0</v>
       </c>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="110" t="b">
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="O17" s="109"/>
+      <c r="P17" s="107" t="b">
         <v>1</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
       <c r="U17" s="51"/>
       <c r="V17" s="48" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
@@ -15950,59 +16191,61 @@
       <c r="A20" s="29">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="54">
+      <c r="B20" s="54"/>
+      <c r="C20" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="48">
         <v>2.0</v>
       </c>
-      <c r="E20" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="P20" s="54" t="b">
+      <c r="E20" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="51"/>
+      <c r="M20" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="54" t="s">
-        <v>83</v>
+      <c r="Q20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="32.25" customHeight="1">
@@ -16044,55 +16287,57 @@
       <c r="A23" s="29">
         <v>0.7083333333333334</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="N23" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="54" t="b">
+      <c r="B23" s="54"/>
+      <c r="C23" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="54" t="s">
-        <v>219</v>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="48" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -16100,12 +16345,12 @@
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -16114,63 +16359,69 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="79">
+      <c r="C25" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="112">
         <v>2.0</v>
       </c>
-      <c r="E25" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="54" t="b">
+      <c r="E25" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" s="91"/>
+      <c r="P25" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="54" t="s">
-        <v>181</v>
+      <c r="Q25" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="89" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -16184,28 +16435,28 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
       <c r="Y27" s="26"/>
     </row>
     <row r="28">
@@ -16213,6 +16464,57 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
+      <c r="C28" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="114"/>
+      <c r="J28" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="R28" s="115" t="s">
+        <v>252</v>
+      </c>
+      <c r="S28" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="T28" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="U28" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="V28" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="W28" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" s="114"/>
     </row>
     <row r="29">
       <c r="A29" s="42">
@@ -16329,7 +16631,7 @@
       <c r="Y33" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="94">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="C17:C18"/>
@@ -16354,6 +16656,29 @@
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="T17:T18"/>
@@ -16408,8 +16733,10 @@
     <hyperlink r:id="rId3" ref="Q20"/>
     <hyperlink r:id="rId4" ref="M23"/>
     <hyperlink r:id="rId5" ref="Q25"/>
+    <hyperlink r:id="rId6" ref="Q28"/>
+    <hyperlink r:id="rId7" ref="X28"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -16567,25 +16894,25 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="106" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -16603,7 +16930,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -16618,10 +16945,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -16912,8 +17239,8 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -16970,8 +17297,8 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -17021,61 +17348,63 @@
       <c r="A19" s="29">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="54">
+      <c r="B19" s="54"/>
+      <c r="C19" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="48">
         <v>1.0</v>
       </c>
-      <c r="E19" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="O19" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="P19" s="54" t="b">
+      <c r="E19" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="P19" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="54" t="s">
-        <v>228</v>
+      <c r="Q19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="48" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="20">
@@ -17083,29 +17412,29 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
     </row>
     <row r="21">
       <c r="A21" s="29">
@@ -17140,72 +17469,74 @@
       <c r="A22" s="29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="54">
+      <c r="B22" s="54"/>
+      <c r="C22" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="48">
         <v>1.0</v>
       </c>
-      <c r="E22" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="K22" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="O22" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="P22" s="54" t="b">
+      <c r="E22" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
+      <c r="Q22" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
     </row>
     <row r="23">
       <c r="A23" s="29">
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -17214,78 +17545,80 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="69"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
     </row>
-    <row r="24">
+    <row r="24" ht="28.5" customHeight="1">
       <c r="A24" s="29">
         <v>0.75</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="79">
+      <c r="B24" s="54"/>
+      <c r="C24" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="64">
         <v>2.0</v>
       </c>
-      <c r="E24" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="I24" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="K24" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="O24" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="P24" s="54" t="b">
+      <c r="E24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="P24" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="81"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="Q24" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="77"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" ht="27.75" customHeight="1">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
@@ -17295,96 +17628,75 @@
       <c r="A26" s="25">
         <v>0.8333333333333334</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="46"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="29">
+      <c r="A27" s="119">
         <v>0.875</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="26"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="72">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="109"/>
     </row>
     <row r="28">
       <c r="A28" s="29">
         <v>0.9166666666666666</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
     </row>
     <row r="29">
       <c r="A29" s="42">
@@ -17527,29 +17839,29 @@
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="V27:V29"/>
+    <mergeCell ref="W27:W29"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="Y27:Y29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="U27:U29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="M22"/>
@@ -17650,7 +17962,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -17718,7 +18030,7 @@
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -17727,16 +18039,16 @@
       <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="106" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -17754,7 +18066,7 @@
       <c r="M5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="106" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -17769,10 +18081,10 @@
       <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="23" t="s">
@@ -18067,42 +18379,30 @@
         <v>0.375</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="116">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="116">
-        <v>3.0</v>
-      </c>
-      <c r="U15" s="117"/>
-      <c r="V15" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
     </row>
     <row r="16">
       <c r="A16" s="29">
@@ -18176,65 +18476,67 @@
       <c r="Y19" s="47"/>
       <c r="Z19" s="47"/>
     </row>
-    <row r="20">
+    <row r="20" ht="25.5" customHeight="1">
       <c r="A20" s="29">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="85">
+      <c r="B20" s="54"/>
+      <c r="C20" s="126" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="126">
         <v>2.0</v>
       </c>
-      <c r="E20" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="119"/>
-      <c r="J20" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="M20" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="P20" s="85" t="b">
+      <c r="E20" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="126" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="127"/>
+      <c r="J20" s="126" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="M20" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="N20" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="126" t="s">
+        <v>288</v>
+      </c>
+      <c r="P20" s="126" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-    </row>
-    <row r="21">
+      <c r="Q20" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
       <c r="A21" s="29">
         <v>0.625</v>
       </c>
@@ -18245,102 +18547,104 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="64"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="62"/>
     </row>
     <row r="23">
       <c r="A23" s="29">
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="121" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="121">
+      <c r="C23" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="129">
         <v>1.0</v>
       </c>
-      <c r="E23" s="121" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="121" t="s">
-        <v>261</v>
-      </c>
-      <c r="H23" s="121" t="s">
-        <v>262</v>
-      </c>
-      <c r="I23" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="J23" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="116" t="s">
-        <v>265</v>
-      </c>
-      <c r="P23" s="116" t="b">
+      <c r="E23" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="129" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="J23" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="131"/>
+      <c r="N23" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="P23" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="R23" s="123"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z23" s="117"/>
+      <c r="Q23" s="132" t="s">
+        <v>297</v>
+      </c>
+      <c r="R23" s="133"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z23" s="131"/>
     </row>
     <row r="24">
       <c r="A24" s="29">
         <v>0.75</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="124"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -18349,72 +18653,74 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>0.7916666666666666</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="66">
+      <c r="C25" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="64">
         <v>1.0</v>
       </c>
-      <c r="E25" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="G25" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>272</v>
+      <c r="E25" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>303</v>
       </c>
       <c r="I25" s="51"/>
-      <c r="J25" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="N25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="125"/>
-      <c r="P25" s="66" t="b">
+      <c r="J25" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="77"/>
+      <c r="P25" s="64" t="b">
         <v>1</v>
       </c>
       <c r="Q25" s="50" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="R25" s="51"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
       <c r="Y25" s="48" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="Z25" s="51"/>
     </row>
@@ -18423,28 +18729,28 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
     </row>
@@ -18453,38 +18759,40 @@
         <v>0.875</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="66">
+      <c r="C27" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="64">
         <v>3.0</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="66" t="s">
-        <v>120</v>
+      <c r="E27" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="64" t="s">
+        <v>137</v>
       </c>
       <c r="I27" s="51"/>
-      <c r="J27" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
+      <c r="J27" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
@@ -18690,12 +18998,11 @@
     <mergeCell ref="I27:I29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="Q20"/>
-    <hyperlink r:id="rId3" ref="Q23"/>
-    <hyperlink r:id="rId4" ref="M25"/>
-    <hyperlink r:id="rId5" ref="Q25"/>
+    <hyperlink r:id="rId1" ref="Q20"/>
+    <hyperlink r:id="rId2" ref="Q23"/>
+    <hyperlink r:id="rId3" ref="M25"/>
+    <hyperlink r:id="rId4" ref="Q25"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>